--- a/config_11.3/rank_server.xlsx
+++ b/config_11.3/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="209">
   <si>
     <t>id|</t>
   </si>
@@ -708,10 +708,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_3d_target_yu_award</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>麻辣小龙虾5斤</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -937,6 +933,65 @@
         <scheme val="minor"/>
       </rPr>
       <t>000福利券</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_target_yu_award</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3,48</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>41,47</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,49</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>38</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,46</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1523,7 +1578,7 @@
         <v>1568649599</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>14</v>
@@ -1976,10 +2031,10 @@
         <v>0</v>
       </c>
       <c r="C15" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>177</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>178</v>
       </c>
       <c r="E15" s="27">
         <v>1598311800</v>
@@ -1991,7 +2046,7 @@
         <v>139</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I15" s="27">
         <v>15</v>
@@ -2011,10 +2066,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E16" s="28">
         <v>1598311800</v>
@@ -2023,10 +2078,10 @@
         <v>2555555555</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I16" s="28">
         <v>16</v>
@@ -2046,10 +2101,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E17" s="28">
         <v>1598311800</v>
@@ -2058,10 +2113,10 @@
         <v>2555555555</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I17" s="28">
         <v>17</v>
@@ -2081,10 +2136,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E18" s="28">
         <v>1598311800</v>
@@ -2093,10 +2148,10 @@
         <v>2555555555</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I18" s="28">
         <v>18</v>
@@ -2116,10 +2171,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E19" s="28">
         <v>1598311800</v>
@@ -2128,10 +2183,10 @@
         <v>2555555555</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I19" s="28">
         <v>19</v>
@@ -2151,10 +2206,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E20" s="28">
         <v>1598311800</v>
@@ -2163,10 +2218,10 @@
         <v>2555555555</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I20" s="28">
         <v>20</v>
@@ -2187,10 +2242,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2521,7 +2576,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2546,7 +2601,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="D25" s="2">
         <v>16</v>
@@ -2607,7 +2662,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2632,7 +2687,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2640,10 +2695,10 @@
         <v>16</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2654,7 +2709,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2662,7 +2717,63 @@
         <v>16</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>17</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>18</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>19</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>20</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="2">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2674,10 +2785,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3043,6 +3154,74 @@
         <v>9</v>
       </c>
       <c r="E21" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>18</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>19</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>20</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>21</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="2">
         <v>2</v>
       </c>
     </row>
@@ -7051,7 +7230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C97" sqref="C97:F103"/>
     </sheetView>
@@ -8515,7 +8694,7 @@
         <v>71</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D73" s="20"/>
       <c r="E73" s="5"/>
@@ -8551,7 +8730,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D75" s="20"/>
       <c r="E75" s="5"/>
@@ -8687,7 +8866,7 @@
         <v>78</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D82" s="20"/>
       <c r="E82" s="5"/>
@@ -8723,7 +8902,7 @@
         <v>79</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D84" s="20"/>
       <c r="E84" s="5"/>
@@ -8839,7 +9018,7 @@
         <v>85</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>158</v>
@@ -8859,7 +9038,7 @@
         <v>86</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D91" s="24" t="s">
         <v>158</v>
@@ -8879,7 +9058,7 @@
         <v>87</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D92" s="24" t="s">
         <v>158</v>
@@ -8899,7 +9078,7 @@
         <v>88</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>158</v>
@@ -8979,7 +9158,7 @@
         <v>92</v>
       </c>
       <c r="C97" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D97" s="33" t="s">
         <v>158</v>
@@ -8999,7 +9178,7 @@
         <v>93</v>
       </c>
       <c r="C98" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D98" s="33" t="s">
         <v>158</v>
@@ -9019,7 +9198,7 @@
         <v>94</v>
       </c>
       <c r="C99" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D99" s="33" t="s">
         <v>158</v>
@@ -9039,7 +9218,7 @@
         <v>95</v>
       </c>
       <c r="C100" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D100" s="33" t="s">
         <v>158</v>
@@ -9059,7 +9238,7 @@
         <v>96</v>
       </c>
       <c r="C101" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D101" s="33" t="s">
         <v>158</v>
